--- a/CalData/ENVvDHT22Compare.xlsx
+++ b/CalData/ENVvDHT22Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\Documents\GitHub\FlashAtmosphere\CalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FDEA6-4F9A-4133-801E-597B0145BE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7307FD-C7CE-4FA7-A715-79A9837C5B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{3843C142-8D40-4D04-A9EC-E15D31497015}"/>
   </bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E3F5C1-C361-4F00-836E-5AF6B034BDBA}">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="T106" sqref="T106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5407,7 +5407,7 @@
         <v>107</v>
       </c>
       <c r="U104">
-        <f t="shared" ref="J104:U104" si="4">AVERAGE(U3:U102)</f>
+        <f t="shared" ref="U104" si="4">AVERAGE(U3:U102)</f>
         <v>-7.3028270000000033</v>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
         <v>108</v>
       </c>
       <c r="U105">
-        <f t="shared" ref="J105:U105" si="5">_xlfn.STDEV.S(U3:U102)</f>
+        <f t="shared" ref="U105" si="5">_xlfn.STDEV.S(U3:U102)</f>
         <v>0.47564486992488259</v>
       </c>
     </row>
